--- a/docs/Model_1.xlsx
+++ b/docs/Model_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -80,8 +80,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -132,8 +132,8 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -6264,11 +6264,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2098999056"/>
-        <c:axId val="-2098995792"/>
+        <c:axId val="-2079237728"/>
+        <c:axId val="-2101022496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2098999056"/>
+        <c:axId val="-2079237728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6325,12 +6325,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098995792"/>
+        <c:crossAx val="-2101022496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2098995792"/>
+        <c:axId val="-2101022496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6387,7 +6387,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098999056"/>
+        <c:crossAx val="-2079237728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6446,7 +6446,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12542,11 +12541,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2078515904"/>
-        <c:axId val="-2078511872"/>
+        <c:axId val="-2077581168"/>
+        <c:axId val="-2078084208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2078515904"/>
+        <c:axId val="-2077581168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12603,12 +12602,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078511872"/>
+        <c:crossAx val="-2078084208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2078511872"/>
+        <c:axId val="-2078084208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12665,7 +12664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078515904"/>
+        <c:crossAx val="-2077581168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12724,7 +12723,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18820,11 +18818,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2101006624"/>
-        <c:axId val="-2080271312"/>
+        <c:axId val="-2099427792"/>
+        <c:axId val="-2101505680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2101006624"/>
+        <c:axId val="-2099427792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18881,12 +18879,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080271312"/>
+        <c:crossAx val="-2101505680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2080271312"/>
+        <c:axId val="-2101505680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18943,7 +18941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101006624"/>
+        <c:crossAx val="-2099427792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21034,7 +21032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" zoomScalePageLayoutView="194" workbookViewId="0">
+    <sheetView zoomScale="194" zoomScaleNormal="194" zoomScalePageLayoutView="194" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -21116,8 +21114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
